--- a/team/recettes/tacos mexicain.xlsx
+++ b/team/recettes/tacos mexicain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2F8981-B1AF-48CF-9598-98C948A00592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC79BD-E0E4-468F-86E0-A2BE6BED1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29EE3087-B04B-4171-AB48-8A949D71479D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Nom</t>
   </si>
@@ -91,61 +91,58 @@
     <t>Egoutter les haricots rouges et les ajouter 2 min avant la fin de cuisson.</t>
   </si>
   <si>
-    <t>Hors du feu, ajuster l'assaisonnement et saupoudrer généreusement de cumin; on peut aussi rajouter quelques gouttes de Tabasco.</t>
-  </si>
-  <si>
     <t>Garnir les tortillas de préparation et les refermer en les roulant comme des crêpes. Disposer 1 feuille de laitue sur chaque tacos avant de servir.</t>
   </si>
   <si>
-    <t>tomate</t>
-  </si>
-  <si>
-    <t>haricots rouges</t>
-  </si>
-  <si>
     <t>1petite boite</t>
   </si>
   <si>
-    <t>cumin en poudre</t>
-  </si>
-  <si>
-    <t>poivre</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tortillas </t>
-  </si>
-  <si>
     <t>8u</t>
   </si>
   <si>
-    <t>oignon blanc</t>
-  </si>
-  <si>
-    <t>coulis de tomate</t>
-  </si>
-  <si>
     <t>10cl</t>
   </si>
   <si>
     <t>250g</t>
   </si>
   <si>
-    <t>bœuf haché</t>
-  </si>
-  <si>
-    <t>poivron vert</t>
-  </si>
-  <si>
     <t>1/2u</t>
   </si>
   <si>
-    <t>feuilles de laitue</t>
+    <t>Tomate, crue</t>
+  </si>
+  <si>
+    <t>Haricot rouge, appertisé, égoutté</t>
+  </si>
+  <si>
+    <t>Cumin, graine</t>
+  </si>
+  <si>
+    <t>Poivre noir, poudre</t>
+  </si>
+  <si>
+    <t>Sel blanc alimentaire, iodé, fluoré à 25 mg /100 g (marin, ignigène ou gemme)</t>
+  </si>
+  <si>
+    <t>Tortilla souple (à garnir), à base de blé</t>
+  </si>
+  <si>
+    <t>Oignon, cru</t>
+  </si>
+  <si>
+    <t>Tomate, coulis, appertisé (purée de tomates mi-réduite à 11%)</t>
+  </si>
+  <si>
+    <t>Boeuf, steak haché 20% MG, cru</t>
+  </si>
+  <si>
+    <t>Poivron vert, cru</t>
+  </si>
+  <si>
+    <t>Laitue iceberg, crue</t>
+  </si>
+  <si>
+    <t>Hors du feu, ajuster l'assaisonnement et saupoudrer généreusement de cumin.</t>
   </si>
 </sst>
 </file>
@@ -497,13 +494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D71BE8-D9B8-49EE-8DEE-7F2131D0766D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -608,32 +608,32 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -641,23 +641,15 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -666,6 +658,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A2AB9DD5B10D944B262093A9AAF3CC9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="caf85472f4fcfb3a743cda56875ddfb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea62a05a-5154-454e-812a-649395124f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d9d3ea68f631e42d39596aacd92f9a" ns3:_="">
     <xsd:import namespace="ea62a05a-5154-454e-812a-649395124f9d"/>
@@ -811,22 +818,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C620896-0F18-4F89-B35B-911E66AD6C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F9FA01-AAE1-4316-83AB-014819360187}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2179A161-332F-437E-B739-B8176EE935A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -842,28 +858,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C620896-0F18-4F89-B35B-911E66AD6C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F9FA01-AAE1-4316-83AB-014819360187}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>